--- a/Сoaxial Сylinders v_1.11/Documents/Different/Поворот координат.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Поворот координат.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E289D9BD-6D38-4E36-B44A-B2EE6AE81A29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B01BAE-9221-4CE8-8EA6-96FC3B540E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13635" yWindow="2265" windowWidth="21600" windowHeight="11385" xr2:uid="{E7BC8C3C-30DF-430F-B661-87C6161FE2C1}"/>
+    <workbookView xWindow="14190" yWindow="5505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E7BC8C3C-30DF-430F-B661-87C6161FE2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,8 +34,43 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Dmitry</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{1C92B985-FA95-47B1-840A-EC66C646F96C}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Dmitry:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+w - длина лопатки
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
   <si>
     <t>xA</t>
   </si>
@@ -91,13 +127,31 @@
   </si>
   <si>
     <t>yY</t>
+  </si>
+  <si>
+    <t>x0</t>
+  </si>
+  <si>
+    <t>y0</t>
+  </si>
+  <si>
+    <t>xc</t>
+  </si>
+  <si>
+    <t>yc</t>
+  </si>
+  <si>
+    <t>x'</t>
+  </si>
+  <si>
+    <t>y'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +169,42 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -132,13 +212,247 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -452,11 +766,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9390359-D654-4D32-839B-33C7EBCDB061}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9390359-D654-4D32-839B-33C7EBCDB061}">
   <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -466,11 +780,11 @@
         <v>3</v>
       </c>
       <c r="B1">
-        <v>45</v>
+        <v>-45</v>
       </c>
       <c r="C1">
         <f>3.1415926/180*B1</f>
-        <v>0.78539815000000002</v>
+        <v>-0.78539815000000002</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -478,25 +792,25 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>7.3999999999999996E-2</v>
+        <v>0.01</v>
       </c>
       <c r="C2">
         <f>2*B2</f>
-        <v>0.14799999999999999</v>
+        <v>0.02</v>
       </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
       <c r="F2">
         <f>-COS($C$1)*$C$2/2</f>
-        <v>-5.2325902508838069E-2</v>
+        <v>-7.07106790659974E-3</v>
       </c>
       <c r="J2" t="s">
         <v>0</v>
       </c>
       <c r="K2">
         <f>-COS($C$1)*$C$2/2</f>
-        <v>-5.2325902508838069E-2</v>
+        <v>-7.07106790659974E-3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -504,25 +818,25 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0.02</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="C3">
         <f>2*B3</f>
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3">
         <f>SIN($C$1)*$C$2/2</f>
-        <v>5.2325901106770947E-2</v>
+        <v>-7.0710677171312098E-3</v>
       </c>
       <c r="J3" t="s">
         <v>1</v>
       </c>
       <c r="K3">
         <f>SIN($C$1)*$C$2/2</f>
-        <v>5.2325901106770947E-2</v>
+        <v>-7.0710677171312098E-3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -530,39 +844,39 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.73899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="C4">
         <f>B4</f>
-        <v>0.73899999999999999</v>
+        <v>0.7</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4">
         <f>F2-SIN($C$1)*$C$3/2</f>
-        <v>-6.6468037943100494E-2</v>
+        <v>1.0606601386228286E-2</v>
       </c>
       <c r="G4" t="s">
         <v>10</v>
       </c>
       <c r="H4">
         <f>F2+SIN($C$1)*$C$3/2</f>
-        <v>-3.8183767074575652E-2</v>
+        <v>-2.4748737199427766E-2</v>
       </c>
       <c r="J4" t="s">
         <v>5</v>
       </c>
       <c r="K4">
         <f>K2-SIN($C$1)*$C$3/2</f>
-        <v>-6.6468037943100494E-2</v>
+        <v>1.0606601386228286E-2</v>
       </c>
       <c r="L4" t="s">
         <v>10</v>
       </c>
       <c r="M4">
         <f>K2+SIN($C$1)*$C$3/2</f>
-        <v>-3.8183767074575652E-2</v>
+        <v>-2.4748737199427766E-2</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -571,28 +885,28 @@
       </c>
       <c r="F5">
         <f>F3-COS($C$1)*$C$3/2</f>
-        <v>3.8183765293571467E-2</v>
+        <v>-2.4748737483630559E-2</v>
       </c>
       <c r="G5" t="s">
         <v>11</v>
       </c>
       <c r="H5">
         <f>F3+COS($C$1)*$C$3/2</f>
-        <v>6.6468036919970427E-2</v>
+        <v>1.0606602049368141E-2</v>
       </c>
       <c r="J5" t="s">
         <v>6</v>
       </c>
       <c r="K5">
         <f>K3-COS($C$1)*$C$3/2</f>
-        <v>3.8183765293571467E-2</v>
+        <v>-2.4748737483630559E-2</v>
       </c>
       <c r="L5" t="s">
         <v>11</v>
       </c>
       <c r="M5">
         <f>K3+COS($C$1)*$C$3/2</f>
-        <v>6.6468036919970427E-2</v>
+        <v>1.0606602049368141E-2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -601,28 +915,28 @@
       </c>
       <c r="F6" s="1">
         <f>F4-$C$4</f>
-        <v>-0.80546803794310051</v>
+        <v>-0.68939339861377169</v>
       </c>
       <c r="G6" t="s">
         <v>12</v>
       </c>
       <c r="H6" s="1">
         <f>H4-$C$4</f>
-        <v>-0.77718376707457559</v>
+        <v>-0.72474873719942767</v>
       </c>
       <c r="J6" t="s">
         <v>7</v>
       </c>
       <c r="K6" s="1">
         <f>K4+$C$4</f>
-        <v>0.67253196205689947</v>
+        <v>0.71060660138622822</v>
       </c>
       <c r="L6" t="s">
         <v>12</v>
       </c>
       <c r="M6" s="1">
         <f>M4+$C$4</f>
-        <v>0.70081623292542439</v>
+        <v>0.67525126280057224</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -631,28 +945,28 @@
       </c>
       <c r="F7" s="1">
         <f>F5</f>
-        <v>3.8183765293571467E-2</v>
+        <v>-2.4748737483630559E-2</v>
       </c>
       <c r="G7" t="s">
         <v>13</v>
       </c>
       <c r="H7" s="1">
         <f>H5</f>
-        <v>6.6468036919970427E-2</v>
+        <v>1.0606602049368141E-2</v>
       </c>
       <c r="J7" t="s">
         <v>8</v>
       </c>
       <c r="K7" s="1">
         <f>K5</f>
-        <v>3.8183765293571467E-2</v>
+        <v>-2.4748737483630559E-2</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" s="1">
         <f>M5</f>
-        <v>6.6468036919970427E-2</v>
+        <v>1.0606602049368141E-2</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -661,14 +975,14 @@
       </c>
       <c r="F10">
         <f>COS($C$1)*$C$2/2</f>
-        <v>5.2325902508838069E-2</v>
+        <v>7.07106790659974E-3</v>
       </c>
       <c r="J10" t="s">
         <v>17</v>
       </c>
       <c r="K10">
         <f>COS($C$1)*$C$2/2</f>
-        <v>5.2325902508838069E-2</v>
+        <v>7.07106790659974E-3</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -677,14 +991,14 @@
       </c>
       <c r="F11">
         <f>-SIN($C$1)*$C$2/2</f>
-        <v>-5.2325901106770947E-2</v>
+        <v>7.0710677171312098E-3</v>
       </c>
       <c r="J11" t="s">
         <v>18</v>
       </c>
       <c r="K11">
         <f>-SIN($C$1)*$C$2/2</f>
-        <v>-5.2325901106770947E-2</v>
+        <v>7.0710677171312098E-3</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -693,28 +1007,28 @@
       </c>
       <c r="F12">
         <f>F10-SIN($C$1)*$C$3/2</f>
-        <v>3.8183767074575652E-2</v>
+        <v>2.4748737199427766E-2</v>
       </c>
       <c r="G12" t="s">
         <v>10</v>
       </c>
       <c r="H12">
         <f>F10+SIN($C$1)*$C$3/2</f>
-        <v>6.6468037943100494E-2</v>
+        <v>-1.0606601386228286E-2</v>
       </c>
       <c r="J12" t="s">
         <v>14</v>
       </c>
       <c r="K12">
         <f>K10-SIN($C$1)*$C$3/2</f>
-        <v>3.8183767074575652E-2</v>
+        <v>2.4748737199427766E-2</v>
       </c>
       <c r="L12" t="s">
         <v>10</v>
       </c>
       <c r="M12">
         <f>K10+SIN($C$1)*$C$3/2</f>
-        <v>6.6468037943100494E-2</v>
+        <v>-1.0606601386228286E-2</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -723,28 +1037,28 @@
       </c>
       <c r="F13">
         <f>F11-COS($C$1)*$C$3/2</f>
-        <v>-6.6468036919970427E-2</v>
+        <v>-1.0606602049368141E-2</v>
       </c>
       <c r="G13" t="s">
         <v>11</v>
       </c>
       <c r="H13">
         <f>F11+COS($C$1)*$C$3/2</f>
-        <v>-3.8183765293571467E-2</v>
+        <v>2.4748737483630559E-2</v>
       </c>
       <c r="J13" t="s">
         <v>15</v>
       </c>
       <c r="K13">
         <f>K11-COS($C$1)*$C$3/2</f>
-        <v>-6.6468036919970427E-2</v>
+        <v>-1.0606602049368141E-2</v>
       </c>
       <c r="L13" t="s">
         <v>11</v>
       </c>
       <c r="M13">
         <f>K11+COS($C$1)*$C$3/2</f>
-        <v>-3.8183765293571467E-2</v>
+        <v>2.4748737483630559E-2</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -753,28 +1067,28 @@
       </c>
       <c r="F14" s="1">
         <f>F12-$C$4</f>
-        <v>-0.70081623292542439</v>
+        <v>-0.67525126280057224</v>
       </c>
       <c r="G14" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="1">
         <f>H12-$C$4</f>
-        <v>-0.67253196205689947</v>
+        <v>-0.71060660138622822</v>
       </c>
       <c r="J14" t="s">
         <v>14</v>
       </c>
       <c r="K14" s="1">
         <f>K12+$C$4</f>
-        <v>0.77718376707457559</v>
+        <v>0.72474873719942767</v>
       </c>
       <c r="L14" t="s">
         <v>12</v>
       </c>
       <c r="M14" s="1">
         <f>M12+$C$4</f>
-        <v>0.80546803794310051</v>
+        <v>0.68939339861377169</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -783,108 +1097,356 @@
       </c>
       <c r="F15" s="1">
         <f>F13</f>
-        <v>-6.6468036919970427E-2</v>
+        <v>-1.0606602049368141E-2</v>
       </c>
       <c r="G15" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="1">
         <f>H13</f>
-        <v>-3.8183765293571467E-2</v>
+        <v>2.4748737483630559E-2</v>
       </c>
       <c r="J15" t="s">
         <v>16</v>
       </c>
       <c r="K15" s="1">
         <f>K13</f>
-        <v>-6.6468036919970427E-2</v>
+        <v>-1.0606602049368141E-2</v>
       </c>
       <c r="L15" t="s">
         <v>13</v>
       </c>
       <c r="M15" s="1">
         <f>M13</f>
-        <v>-3.8183765293571467E-2</v>
+        <v>2.4748737483630559E-2</v>
       </c>
     </row>
     <row r="22" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F22">
         <f>F6</f>
-        <v>-0.80546803794310051</v>
+        <v>-0.68939339861377169</v>
       </c>
       <c r="G22">
         <f>F7</f>
-        <v>3.8183765293571467E-2</v>
+        <v>-2.4748737483630559E-2</v>
       </c>
     </row>
     <row r="23" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F23">
         <f>H6</f>
-        <v>-0.77718376707457559</v>
+        <v>-0.72474873719942767</v>
       </c>
       <c r="G23">
         <f>H7</f>
-        <v>6.6468036919970427E-2</v>
+        <v>1.0606602049368141E-2</v>
       </c>
     </row>
     <row r="24" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F24">
         <f>H14</f>
-        <v>-0.67253196205689947</v>
+        <v>-0.71060660138622822</v>
       </c>
       <c r="G24">
         <f>H15</f>
-        <v>-3.8183765293571467E-2</v>
+        <v>2.4748737483630559E-2</v>
       </c>
     </row>
     <row r="25" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F25">
         <f>F14</f>
-        <v>-0.70081623292542439</v>
+        <v>-0.67525126280057224</v>
       </c>
       <c r="G25">
         <f>F15</f>
-        <v>-6.6468036919970427E-2</v>
+        <v>-1.0606602049368141E-2</v>
       </c>
     </row>
     <row r="27" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F27">
         <f>K6</f>
-        <v>0.67253196205689947</v>
+        <v>0.71060660138622822</v>
       </c>
       <c r="G27">
         <f>K7</f>
-        <v>3.8183765293571467E-2</v>
+        <v>-2.4748737483630559E-2</v>
       </c>
     </row>
     <row r="28" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F28">
         <f>M6</f>
-        <v>0.70081623292542439</v>
+        <v>0.67525126280057224</v>
       </c>
       <c r="G28">
         <f>M7</f>
-        <v>6.6468036919970427E-2</v>
+        <v>1.0606602049368141E-2</v>
       </c>
     </row>
     <row r="29" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F29">
         <f>M14</f>
-        <v>0.80546803794310051</v>
+        <v>0.68939339861377169</v>
       </c>
       <c r="G29">
         <f>M15</f>
-        <v>-3.8183765293571467E-2</v>
+        <v>2.4748737483630559E-2</v>
       </c>
     </row>
     <row r="30" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F30">
         <f>K14</f>
-        <v>0.77718376707457559</v>
+        <v>0.72474873719942767</v>
       </c>
       <c r="G30">
         <f>K15</f>
-        <v>-6.6468036919970427E-2</v>
+        <v>-1.0606602049368141E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590ACC68-FB05-4891-9309-B700F1CFC845}">
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="2"/>
+    <col min="2" max="2" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="13.28515625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="B2" s="7">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="C2" s="7">
+        <v>45</v>
+      </c>
+      <c r="D2" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E2" s="7">
+        <v>0</v>
+      </c>
+      <c r="F2" s="11">
+        <f>(A2-D2)*COS(C2*PI()/180)-(B2-E2)*SIN(C2*PI()/180)+D2</f>
+        <v>0.33206213946819496</v>
+      </c>
+      <c r="G2" s="8">
+        <f>(A2-D2)*SIN(C2*PI()/180)+(B2-E2)*COS(C2*PI()/180)+E2</f>
+        <v>-0.18561553006146872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B3" s="7">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="C3" s="7">
+        <v>45</v>
+      </c>
+      <c r="D3" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <f t="shared" ref="F3:F5" si="0">(A3-D3)*COS(C3*PI()/180)-(B3-E3)*SIN(C3*PI()/180)+D3</f>
+        <v>0.6856155300614688</v>
+      </c>
+      <c r="G3" s="8">
+        <f t="shared" ref="G3:G5" si="1">(A3-D3)*SIN(C3*PI()/180)+(B3-E3)*COS(C3*PI()/180)+E3</f>
+        <v>0.16793786053180501</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="6">
+        <v>0.75</v>
+      </c>
+      <c r="B4" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C4" s="7">
+        <v>45</v>
+      </c>
+      <c r="D4" s="7">
+        <v>0.5</v>
+      </c>
+      <c r="E4" s="7">
+        <v>0</v>
+      </c>
+      <c r="F4" s="11">
+        <f t="shared" si="0"/>
+        <v>0.66793786053180504</v>
+      </c>
+      <c r="G4" s="8">
+        <f t="shared" si="1"/>
+        <v>0.18561553006146872</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="16">
+        <v>0.25</v>
+      </c>
+      <c r="B5" s="17">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C5" s="17">
+        <v>45</v>
+      </c>
+      <c r="D5" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <f t="shared" si="0"/>
+        <v>0.31438446993853125</v>
+      </c>
+      <c r="G5" s="19">
+        <f t="shared" si="1"/>
+        <v>-0.16793786053180501</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>-0.25</v>
+      </c>
+      <c r="B6" s="13">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C6" s="13">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="14">
+        <f>(A6-D6)*COS(C6*PI()/180)-(B6-E6)*SIN(C6*PI()/180)+D6</f>
+        <v>-0.33206213946819496</v>
+      </c>
+      <c r="G6" s="15">
+        <f>(A6-D6)*SIN(C6*PI()/180)+(B6-E6)*COS(C6*PI()/180)+E6</f>
+        <v>0.18561553006146872</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="B7" s="7">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="C7" s="7">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="11">
+        <f t="shared" ref="F7:F9" si="2">(A7-D7)*COS(C7*PI()/180)-(B7-E7)*SIN(C7*PI()/180)+D7</f>
+        <v>-0.6856155300614688</v>
+      </c>
+      <c r="G7" s="8">
+        <f t="shared" ref="G7:G9" si="3">(A7-D7)*SIN(C7*PI()/180)+(B7-E7)*COS(C7*PI()/180)+E7</f>
+        <v>-0.16793786053180501</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="6">
+        <v>-0.75</v>
+      </c>
+      <c r="B8" s="7">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="C8" s="7">
+        <v>45</v>
+      </c>
+      <c r="D8" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.66793786053180504</v>
+      </c>
+      <c r="G8" s="8">
+        <f t="shared" si="3"/>
+        <v>-0.18561553006146872</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="6">
+        <v>-0.25</v>
+      </c>
+      <c r="B9" s="7">
+        <v>-1.2500000000000001E-2</v>
+      </c>
+      <c r="C9" s="7">
+        <v>45</v>
+      </c>
+      <c r="D9" s="13">
+        <v>-0.5</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="11">
+        <f t="shared" si="2"/>
+        <v>-0.31438446993853125</v>
+      </c>
+      <c r="G9" s="8">
+        <f t="shared" si="3"/>
+        <v>0.16793786053180501</v>
       </c>
     </row>
   </sheetData>

--- a/Сoaxial Сylinders v_1.11/Documents/Different/Поворот координат.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Поворот координат.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B01BAE-9221-4CE8-8EA6-96FC3B540E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B4D26-D169-4C87-BF44-B3BAFED29E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14190" yWindow="5505" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E7BC8C3C-30DF-430F-B661-87C6161FE2C1}"/>
+    <workbookView xWindow="14700" yWindow="4485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E7BC8C3C-30DF-430F-B661-87C6161FE2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -1213,7 +1213,7 @@
   <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G9" sqref="F2:G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1251,202 +1251,202 @@
     </row>
     <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6">
-        <v>0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B2" s="7">
-        <v>-1.2500000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C2" s="7">
         <v>45</v>
       </c>
       <c r="D2" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F2" s="11">
         <f>(A2-D2)*COS(C2*PI()/180)-(B2-E2)*SIN(C2*PI()/180)+D2</f>
-        <v>0.33206213946819496</v>
+        <v>8.8388347648318447E-2</v>
       </c>
       <c r="G2" s="8">
         <f>(A2-D2)*SIN(C2*PI()/180)+(B2-E2)*COS(C2*PI()/180)+E2</f>
-        <v>-0.18561553006146872</v>
+        <v>0.14696699141100894</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="6">
-        <v>0.75</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B3" s="7">
-        <v>-1.2500000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="C3" s="7">
         <v>45</v>
       </c>
       <c r="D3" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F5" si="0">(A3-D3)*COS(C3*PI()/180)-(B3-E3)*SIN(C3*PI()/180)+D3</f>
-        <v>0.6856155300614688</v>
+        <v>-5.3033008588991029E-2</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G5" si="1">(A3-D3)*SIN(C3*PI()/180)+(B3-E3)*COS(C3*PI()/180)+E3</f>
-        <v>0.16793786053180501</v>
+        <v>0.28838834764831844</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="6">
-        <v>0.75</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B4" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>0.3</v>
       </c>
       <c r="C4" s="7">
         <v>45</v>
       </c>
       <c r="D4" s="7">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>0.66793786053180504</v>
+        <v>-8.8388347648318419E-2</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>0.18561553006146872</v>
+        <v>0.25303300858899108</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="16">
-        <v>0.25</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B5" s="17">
-        <v>1.2500000000000001E-2</v>
+        <v>0.1</v>
       </c>
       <c r="C5" s="17">
         <v>45</v>
       </c>
       <c r="D5" s="17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="E5" s="17">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="0"/>
-        <v>0.31438446993853125</v>
+        <v>5.3033008588991057E-2</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="1"/>
-        <v>-0.16793786053180501</v>
+        <v>0.11161165235168155</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="12">
-        <v>-0.25</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B6" s="13">
-        <v>1.2500000000000001E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="C6" s="13">
         <v>45</v>
       </c>
       <c r="D6" s="13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E6" s="13">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F6" s="14">
         <f>(A6-D6)*COS(C6*PI()/180)-(B6-E6)*SIN(C6*PI()/180)+D6</f>
-        <v>-0.33206213946819496</v>
+        <v>-8.8388347648318447E-2</v>
       </c>
       <c r="G6" s="15">
         <f>(A6-D6)*SIN(C6*PI()/180)+(B6-E6)*COS(C6*PI()/180)+E6</f>
-        <v>0.18561553006146872</v>
+        <v>-0.14696699141100894</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6">
-        <v>-0.75</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B7" s="7">
-        <v>1.2500000000000001E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="C7" s="7">
         <v>45</v>
       </c>
       <c r="D7" s="13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E7" s="13">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" ref="F7:F9" si="2">(A7-D7)*COS(C7*PI()/180)-(B7-E7)*SIN(C7*PI()/180)+D7</f>
-        <v>-0.6856155300614688</v>
+        <v>5.3033008588991029E-2</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G9" si="3">(A7-D7)*SIN(C7*PI()/180)+(B7-E7)*COS(C7*PI()/180)+E7</f>
-        <v>-0.16793786053180501</v>
+        <v>-0.28838834764831844</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6">
-        <v>-0.75</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B8" s="7">
-        <v>-1.2500000000000001E-2</v>
+        <v>-0.3</v>
       </c>
       <c r="C8" s="7">
         <v>45</v>
       </c>
       <c r="D8" s="13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>-0.66793786053180504</v>
+        <v>8.8388347648318419E-2</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="3"/>
-        <v>-0.18561553006146872</v>
+        <v>-0.25303300858899108</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6">
-        <v>-0.25</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="B9" s="7">
-        <v>-1.2500000000000001E-2</v>
+        <v>-0.1</v>
       </c>
       <c r="C9" s="7">
         <v>45</v>
       </c>
       <c r="D9" s="13">
-        <v>-0.5</v>
+        <v>0</v>
       </c>
       <c r="E9" s="13">
-        <v>0</v>
+        <v>-0.2</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-0.31438446993853125</v>
+        <v>-5.3033008588991057E-2</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="3"/>
-        <v>0.16793786053180501</v>
+        <v>-0.11161165235168155</v>
       </c>
     </row>
   </sheetData>

--- a/Сoaxial Сylinders v_1.11/Documents/Different/Поворот координат.xlsx
+++ b/Сoaxial Сylinders v_1.11/Documents/Different/Поворот координат.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Visual Studio\Coaxial Сylinders\Сoaxial Сylinders v_1.11\Сoaxial Сylinders v_1.11\Documents\Different\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C4B4D26-D169-4C87-BF44-B3BAFED29E8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FEA818A-9F79-46E5-A748-62774F7C6C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="4485" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E7BC8C3C-30DF-430F-B661-87C6161FE2C1}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{E7BC8C3C-30DF-430F-B661-87C6161FE2C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="50">
   <si>
     <t>xA</t>
   </si>
@@ -145,6 +145,81 @@
   </si>
   <si>
     <t>y'</t>
+  </si>
+  <si>
+    <t>//+</t>
+  </si>
+  <si>
+    <t>Point(1)</t>
+  </si>
+  <si>
+    <t>=</t>
+  </si>
+  <si>
+    <t>{0,</t>
+  </si>
+  <si>
+    <t>1.0};</t>
+  </si>
+  <si>
+    <t>Point(2)</t>
+  </si>
+  <si>
+    <t>{0.159099026,</t>
+  </si>
+  <si>
+    <t>0.376256313,</t>
+  </si>
+  <si>
+    <t>Point(3)</t>
+  </si>
+  <si>
+    <t>{-0.123743687,</t>
+  </si>
+  <si>
+    <t>0.659099026,</t>
+  </si>
+  <si>
+    <t>Point(4)</t>
+  </si>
+  <si>
+    <t>{-0.159099026,</t>
+  </si>
+  <si>
+    <t>0.623743687,</t>
+  </si>
+  <si>
+    <t>Point(5)</t>
+  </si>
+  <si>
+    <t>{0.123743687,</t>
+  </si>
+  <si>
+    <t>0.340900974,</t>
+  </si>
+  <si>
+    <t>Point(6)</t>
+  </si>
+  <si>
+    <t>-0.376256313,</t>
+  </si>
+  <si>
+    <t>Point(7)</t>
+  </si>
+  <si>
+    <t>-0.659099026,</t>
+  </si>
+  <si>
+    <t>Point(8)</t>
+  </si>
+  <si>
+    <t>-0.623743687,</t>
+  </si>
+  <si>
+    <t>Point(9)</t>
+  </si>
+  <si>
+    <t>-0.340900974,</t>
   </si>
 </sst>
 </file>
@@ -1210,10 +1285,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{590ACC68-FB05-4891-9309-B700F1CFC845}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="F2:G9"/>
+      <selection activeCell="F27" sqref="A11:F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1254,7 +1329,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B2" s="7">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C2" s="7">
         <v>45</v>
@@ -1263,15 +1338,15 @@
         <v>0</v>
       </c>
       <c r="E2" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="11">
         <f>(A2-D2)*COS(C2*PI()/180)-(B2-E2)*SIN(C2*PI()/180)+D2</f>
-        <v>8.8388347648318447E-2</v>
+        <v>0.15909902576697318</v>
       </c>
       <c r="G2" s="8">
         <f>(A2-D2)*SIN(C2*PI()/180)+(B2-E2)*COS(C2*PI()/180)+E2</f>
-        <v>0.14696699141100894</v>
+        <v>0.37625631329235415</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1279,7 +1354,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B3" s="7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C3" s="7">
         <v>45</v>
@@ -1288,15 +1363,15 @@
         <v>0</v>
       </c>
       <c r="E3" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="11">
         <f t="shared" ref="F3:F5" si="0">(A3-D3)*COS(C3*PI()/180)-(B3-E3)*SIN(C3*PI()/180)+D3</f>
-        <v>-5.3033008588991029E-2</v>
+        <v>-0.12374368670764575</v>
       </c>
       <c r="G3" s="8">
         <f t="shared" ref="G3:G5" si="1">(A3-D3)*SIN(C3*PI()/180)+(B3-E3)*COS(C3*PI()/180)+E3</f>
-        <v>0.28838834764831844</v>
+        <v>0.6590990257669731</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1304,7 +1379,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B4" s="7">
-        <v>0.3</v>
+        <v>0.7</v>
       </c>
       <c r="C4" s="7">
         <v>45</v>
@@ -1313,15 +1388,15 @@
         <v>0</v>
       </c>
       <c r="E4" s="7">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F4" s="11">
         <f t="shared" si="0"/>
-        <v>-8.8388347648318419E-2</v>
+        <v>-0.15909902576697313</v>
       </c>
       <c r="G4" s="8">
         <f t="shared" si="1"/>
-        <v>0.25303300858899108</v>
+        <v>0.62374368670764579</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1329,7 +1404,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B5" s="17">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="C5" s="17">
         <v>45</v>
@@ -1338,15 +1413,15 @@
         <v>0</v>
       </c>
       <c r="E5" s="17">
-        <v>0.2</v>
+        <v>0.5</v>
       </c>
       <c r="F5" s="18">
         <f t="shared" si="0"/>
-        <v>5.3033008588991057E-2</v>
+        <v>0.12374368670764581</v>
       </c>
       <c r="G5" s="19">
         <f t="shared" si="1"/>
-        <v>0.11161165235168155</v>
+        <v>0.34090097423302679</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1354,7 +1429,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B6" s="13">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C6" s="13">
         <v>45</v>
@@ -1363,15 +1438,15 @@
         <v>0</v>
       </c>
       <c r="E6" s="13">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F6" s="14">
         <f>(A6-D6)*COS(C6*PI()/180)-(B6-E6)*SIN(C6*PI()/180)+D6</f>
-        <v>-8.8388347648318447E-2</v>
+        <v>-0.15909902576697318</v>
       </c>
       <c r="G6" s="15">
         <f>(A6-D6)*SIN(C6*PI()/180)+(B6-E6)*COS(C6*PI()/180)+E6</f>
-        <v>-0.14696699141100894</v>
+        <v>-0.37625631329235415</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1379,7 +1454,7 @@
         <v>-2.5000000000000001E-2</v>
       </c>
       <c r="B7" s="7">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="C7" s="7">
         <v>45</v>
@@ -1388,15 +1463,15 @@
         <v>0</v>
       </c>
       <c r="E7" s="13">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F7" s="11">
         <f t="shared" ref="F7:F9" si="2">(A7-D7)*COS(C7*PI()/180)-(B7-E7)*SIN(C7*PI()/180)+D7</f>
-        <v>5.3033008588991029E-2</v>
+        <v>0.12374368670764575</v>
       </c>
       <c r="G7" s="8">
         <f t="shared" ref="G7:G9" si="3">(A7-D7)*SIN(C7*PI()/180)+(B7-E7)*COS(C7*PI()/180)+E7</f>
-        <v>-0.28838834764831844</v>
+        <v>-0.6590990257669731</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1404,7 +1479,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B8" s="7">
-        <v>-0.3</v>
+        <v>-0.7</v>
       </c>
       <c r="C8" s="7">
         <v>45</v>
@@ -1413,15 +1488,15 @@
         <v>0</v>
       </c>
       <c r="E8" s="13">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F8" s="11">
         <f t="shared" si="2"/>
-        <v>8.8388347648318419E-2</v>
+        <v>0.15909902576697313</v>
       </c>
       <c r="G8" s="8">
         <f t="shared" si="3"/>
-        <v>-0.25303300858899108</v>
+        <v>-0.62374368670764579</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
@@ -1429,7 +1504,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="B9" s="7">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="C9" s="7">
         <v>45</v>
@@ -1438,15 +1513,235 @@
         <v>0</v>
       </c>
       <c r="E9" s="13">
-        <v>-0.2</v>
+        <v>-0.5</v>
       </c>
       <c r="F9" s="11">
         <f t="shared" si="2"/>
-        <v>-5.3033008588991057E-2</v>
+        <v>-0.12374368670764581</v>
       </c>
       <c r="G9" s="8">
         <f t="shared" si="3"/>
-        <v>-0.11161165235168155</v>
+        <v>-0.34090097423302679</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
